--- a/수정리스트_20160714.xlsx
+++ b/수정리스트_20160714.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="24240" windowHeight="12495"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠재위험등록,아차사고드록,재해긴급보고등록,게시판등록,커뮤니티등록 사진첨부화면 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디자인요청중이니 완료되면 전달받아 작업요망(이선영대리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,14 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>링크기능(text 입력시 URL 입력후 등록시 URL 영역이 링크되도록 하는 기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼블리싱작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디자인,퍼블리싱변경작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +280,6 @@
   </si>
   <si>
     <t>진행여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 잠재위험/아차사고/재해보고 등록/수정화면 일시 누르면 TimePicker가 뜨도록 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>달력변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,14 +342,72 @@
   </si>
   <si>
     <t>2016.07.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠재위험등록,아차사고드록,재해긴급보고등록,게시판등록,커뮤니티등록 사진첨부화면 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">링크기능(text 입력시 URL 입력후 등록시 URL 영역이 링크되도록 하는 기능)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">링크기능 화면정의서 참조 재수정 요망
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 잠재위험/아차사고/재해보고 등록/수정화면 일시 누르면 TimePicker가 뜨도록 수정
+ TimerPicker 월표시 2016이하 년도 표시가 안되고 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">커뮤니티 글쓰기화면 등록,삭제 버튼 위치 하단에서 너무 올라가 있음
+모든 화면에서 하단에 버튼 있는 경우는 bottom을 기준으로 padding값을 주어야 함.
+Body 부분 레이아웃을 비율에 맞게 조정해야 할것 같습니다.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,10 +623,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,6 +718,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -714,6 +753,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,16 +929,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.75" style="24" customWidth="1"/>
     <col min="4" max="4" width="65.625" style="3" customWidth="1"/>
@@ -909,20 +949,20 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -939,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -951,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -970,7 +1010,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -987,7 +1027,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -999,18 +1039,18 @@
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="28">
         <v>1</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1019,23 +1059,23 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="29">
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1044,21 +1084,21 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="29">
         <v>1</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1">
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1070,18 +1110,18 @@
         <v>21</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1093,11 +1133,11 @@
         <v>22</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="29">
         <v>1</v>
@@ -1106,32 +1146,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>13</v>
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H10" s="29">
         <v>1</v>
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
@@ -1139,24 +1179,24 @@
         <v>19</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="29">
         <v>1</v>
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1">
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1168,18 +1208,18 @@
         <v>24</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1">
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1191,18 +1231,18 @@
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1213,7 +1253,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1">
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1231,10 +1271,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>10</v>
@@ -1252,16 +1292,16 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="16">
         <v>2</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1320,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
+    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -1291,7 +1331,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1339,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>35</v>
@@ -1309,106 +1349,106 @@
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="16">
         <v>2</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="28">
         <v>1</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="28">
         <v>1</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H22" s="28">
         <v>1</v>
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>26</v>
@@ -1420,53 +1460,99 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="33">
+        <v>62</v>
+      </c>
+      <c r="H24" s="32">
         <v>2</v>
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="17" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25" s="16">
         <v>2</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1479,12 +1565,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,12 +1578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/수정리스트_20160714.xlsx
+++ b/수정리스트_20160714.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,20 @@
     <t xml:space="preserve">커뮤니티 글쓰기화면 등록,삭제 버튼 위치 하단에서 너무 올라가 있음
 모든 화면에서 하단에 버튼 있는 경우는 bottom을 기준으로 padding값을 주어야 함.
 Body 부분 레이아웃을 비율에 맞게 조정해야 할것 같습니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠재위험분석/아차사고
+분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 글 내용 작업이 &lt;p&gt; 태그 ----&gt; &lt;pre&gt;태그로 변경요청
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1524,7 @@
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>86</v>
@@ -1531,28 +1545,51 @@
       </c>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>90</v>
+      <c r="B27" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="H27" s="16">
         <v>1</v>
       </c>
       <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/수정리스트_20160714.xlsx
+++ b/수정리스트_20160714.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="24240" windowHeight="12435"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,11 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">링크기능(text 입력시 URL 입력후 등록시 URL 영역이 링크되도록 하는 기능)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,11 +374,6 @@
   </si>
   <si>
     <t>퍼블리싱 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">링크기능 화면정의서 참조 재수정 요망
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,32 +386,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">커뮤니티 글쓰기화면 등록,삭제 버튼 위치 하단에서 너무 올라가 있음
+    <t>2016.07.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 글 내용 작업이 &lt;p&gt; 태그 ----&gt; &lt;pre&gt;태그로 변경요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크기능 화면정의서 참조 재수정 요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크기능(text 입력시 URL 입력후 등록시 URL 영역이 링크되도록 하는 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_bonsa_hyunjang_comunity_register_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_potential_risks_analyze2.html
+1_2_acha_analyze2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠재위험/아차사고 
+부적합사레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 글쓰기화면 등록,삭제 버튼 위치 하단에서 너무 올라가 있음
 모든 화면에서 하단에 버튼 있는 경우는 bottom을 기준으로 padding값을 주어야 함.
-Body 부분 레이아웃을 비율에 맞게 조정해야 할것 같습니다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.07.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠재위험분석/아차사고
-분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 글 내용 작업이 &lt;p&gt; 태그 ----&gt; &lt;pre&gt;태그로 변경요청
-</t>
+Body 부분 레이아웃을 비율에 맞게 조정해야 할것 같습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,8 +469,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +527,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -540,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +664,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +764,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -767,7 +798,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -943,14 +973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.25" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -963,7 +993,7 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1006,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1054,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1071,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1094,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1142,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1165,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1160,9 +1190,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>19</v>
@@ -1171,7 +1201,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>26</v>
@@ -1185,7 +1215,7 @@
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="19" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
@@ -1210,7 +1240,7 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1263,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1267,7 +1297,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="12" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="12" customFormat="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1364,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -1345,7 +1375,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -1399,7 +1429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
@@ -1426,170 +1456,198 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:9" s="27" customFormat="1" ht="7.5" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="28">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="H23" s="28">
         <v>1</v>
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="D24" s="20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="32">
-        <v>2</v>
+      <c r="G24" s="16"/>
+      <c r="H24" s="28">
+        <v>1</v>
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>31</v>
+      <c r="D25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="32">
         <v>2</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>97</v>
+      </c>
       <c r="G26" s="16" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="27" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+      <c r="A28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="16">
-        <v>1</v>
-      </c>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="16"/>
       <c r="D28" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>87</v>
+      <c r="E28" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
+      <c r="A29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="28">
+        <v>1</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="16">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="28">
         <v>1</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1602,12 +1660,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,12 +1673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/수정리스트_20160714.xlsx
+++ b/수정리스트_20160714.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,10 @@
     <t>커뮤니티 글쓰기화면 등록,삭제 버튼 위치 하단에서 너무 올라가 있음
 모든 화면에서 하단에 버튼 있는 경우는 bottom을 기준으로 padding값을 주어야 함.
 Body 부분 레이아웃을 비율에 맞게 조정해야 할것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,9 +667,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,6 +674,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +981,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H23:H24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -994,17 +998,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -1459,13 +1463,13 @@
     <row r="22" spans="1:9" s="27" customFormat="1" ht="7.5" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="26"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="16" t="s">
@@ -1552,7 +1556,7 @@
       <c r="E26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -1569,12 +1573,12 @@
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="34"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="16" t="s">
@@ -1640,7 +1644,9 @@
       <c r="E30" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="G30" s="16" t="s">
         <v>87</v>
       </c>
